--- a/data/moseleys-law.xlsx
+++ b/data/moseleys-law.xlsx
@@ -1,18 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511E2C5E-63A8-4438-80EC-6674B95CCD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="675" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -63,7 +74,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,7 +163,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -230,7 +240,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -358,7 +367,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -458,7 +466,6 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -538,7 +545,6 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -619,7 +625,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1259,7 +1264,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1539,7 +1550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1778,7 +1789,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>